--- a/Tableau_Public_Workshop/Datasets/dataset1_global_no2.xlsx
+++ b/Tableau_Public_Workshop/Datasets/dataset1_global_no2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angela\Desktop\workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angela\Tableau_Public_Workshop\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6145E7-98D3-44EA-95B1-835B54B00757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD49B8B9-1A6A-428F-8976-4C4FC29CFB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>Country</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Standard deviation of the change (%)</t>
-  </si>
-  <si>
-    <t>Nominal area (million sq. km.)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1009,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,10 +1017,9 @@
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,14 +1030,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>-6.62</v>
@@ -1049,13 +1041,10 @@
       <c r="C2" s="2">
         <v>14.4422244552322</v>
       </c>
-      <c r="E2">
-        <v>10.28274755678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>-14.34</v>
@@ -1063,13 +1052,10 @@
       <c r="C3" s="2">
         <v>11.832847097784301</v>
       </c>
-      <c r="E3">
-        <v>0.45604469650099999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>-2.29</v>
@@ -1077,13 +1063,10 @@
       <c r="C4" s="2">
         <v>1.6428561770127601</v>
       </c>
-      <c r="E4">
-        <v>37.080842271110001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>-38.19</v>
@@ -1091,13 +1074,10 @@
       <c r="C5" s="2">
         <v>37.322178048116903</v>
       </c>
-      <c r="E5">
-        <v>9.0876092619999998E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>-0.24</v>
@@ -1105,13 +1085,10 @@
       <c r="C6" s="2">
         <v>7.5543076985486302</v>
       </c>
-      <c r="E6">
-        <v>20.166569257742999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>7.72</v>
@@ -1119,13 +1096,10 @@
       <c r="C7" s="2">
         <v>8.1269851323220692</v>
       </c>
-      <c r="E7">
-        <v>144.90833751854399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>0.65</v>
@@ -1133,13 +1107,10 @@
       <c r="C8" s="2">
         <v>6.2620193857926703</v>
       </c>
-      <c r="E8">
-        <v>44.536623516313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>-18.86</v>
@@ -1147,13 +1118,10 @@
       <c r="C9" s="2">
         <v>12.1183140674454</v>
       </c>
-      <c r="E9">
-        <v>0.49903535674400001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>-4.05</v>
@@ -1161,13 +1129,10 @@
       <c r="C10" s="2">
         <v>2.0181244911991301</v>
       </c>
-      <c r="E10">
-        <v>122.87445006371399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>-26.36</v>
@@ -1175,13 +1140,10 @@
       <c r="C11" s="2">
         <v>15.3536767121394</v>
       </c>
-      <c r="E11">
-        <v>1.316126860752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>3.84</v>
@@ -1189,13 +1151,10 @@
       <c r="C12" s="2">
         <v>4.3391934985877203</v>
       </c>
-      <c r="E12">
-        <v>2.6100400732779998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>-22.32</v>
@@ -1203,13 +1162,10 @@
       <c r="C13" s="2">
         <v>21.7299636072642</v>
       </c>
-      <c r="E13">
-        <v>0.22478123120499999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>-5.15</v>
@@ -1217,13 +1173,10 @@
       <c r="C14" s="2">
         <v>11.335700131408601</v>
       </c>
-      <c r="E14">
-        <v>2.2016459498079999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>11.26</v>
@@ -1231,13 +1184,10 @@
       <c r="C15" s="2">
         <v>14.238395004098001</v>
       </c>
-      <c r="E15">
-        <v>1.202798259E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
         <v>-11.87</v>
@@ -1245,13 +1195,10 @@
       <c r="C16" s="2">
         <v>11.7253817734371</v>
       </c>
-      <c r="E16">
-        <v>3.332456212326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>-27.24</v>
@@ -1259,13 +1206,10 @@
       <c r="C17" s="2">
         <v>16.9216957894042</v>
       </c>
-      <c r="E17">
-        <v>0.48576548248500001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>-1.1499999999999999</v>
@@ -1273,13 +1217,10 @@
       <c r="C18" s="2">
         <v>14.3393581667835</v>
       </c>
-      <c r="E18">
-        <v>0.40102462099800001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>-3.01</v>
@@ -1287,13 +1228,10 @@
       <c r="C19" s="2">
         <v>7.7213815479183001</v>
       </c>
-      <c r="E19">
-        <v>1.8623424666520001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>-11.15</v>
@@ -1301,13 +1239,10 @@
       <c r="C20" s="2">
         <v>4.6200979734092096</v>
       </c>
-      <c r="E20">
-        <v>0.63602953304099996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>-7.66</v>
@@ -1315,13 +1250,10 @@
       <c r="C21" s="2">
         <v>4.3468141300807304</v>
       </c>
-      <c r="E21">
-        <v>17.411753180320002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>-5.07</v>
@@ -1329,13 +1261,10 @@
       <c r="C22" s="2">
         <v>12.5670367949942</v>
       </c>
-      <c r="E22">
-        <v>0.81531996844700005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>-14.13</v>
@@ -1343,13 +1272,10 @@
       <c r="C23" s="2">
         <v>6.4724205716725001</v>
       </c>
-      <c r="E23">
-        <v>9.2581427019550002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>-6.29</v>
@@ -1357,13 +1283,10 @@
       <c r="C24" s="2">
         <v>3.9654324257267599</v>
       </c>
-      <c r="E24">
-        <v>136.037532878185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>20.99</v>
@@ -1371,13 +1294,10 @@
       <c r="C25" s="2">
         <v>15.011168313548399</v>
       </c>
-      <c r="E25">
-        <v>9.8499647300999998E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>-25.92</v>
@@ -1385,13 +1305,10 @@
       <c r="C26" s="2">
         <v>14.037723885100601</v>
       </c>
-      <c r="E26">
-        <v>1.768403025602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>9.7799999999999994</v>
@@ -1399,13 +1316,10 @@
       <c r="C27" s="2">
         <v>17.809692536665899</v>
       </c>
-      <c r="E27">
-        <v>4.3795830485499998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
         <v>-16.87</v>
@@ -1413,13 +1327,10 @@
       <c r="C28" s="2">
         <v>7.4020584729851002</v>
       </c>
-      <c r="E28">
-        <v>0.44384028533699998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>-3.02</v>
@@ -1427,13 +1338,10 @@
       <c r="C29" s="2">
         <v>7.8884239217363801</v>
       </c>
-      <c r="E29">
-        <v>7.1195951320999998E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>-8.61</v>
@@ -1441,13 +1349,10 @@
       <c r="C30" s="2">
         <v>24.447937428642799</v>
       </c>
-      <c r="E30">
-        <v>2.927116977112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2">
         <v>0.52</v>
@@ -1455,13 +1360,10 @@
       <c r="C31" s="2">
         <v>5.5734936777603901</v>
       </c>
-      <c r="E31">
-        <v>7.3548330138239999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
         <v>-17.89</v>
@@ -1469,13 +1371,10 @@
       <c r="C32" s="2">
         <v>10.4679378201327</v>
       </c>
-      <c r="E32">
-        <v>158.06030035549401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2">
         <v>-23.35</v>
@@ -1483,13 +1382,10 @@
       <c r="C33" s="2">
         <v>6.6361924302109401</v>
       </c>
-      <c r="E33">
-        <v>0.11953255176700001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2">
         <v>0.79</v>
@@ -1497,13 +1393,10 @@
       <c r="C34" s="2">
         <v>11.022664633642901</v>
       </c>
-      <c r="E34">
-        <v>9.9468060723399994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2">
         <v>-5.35</v>
@@ -1511,13 +1404,10 @@
       <c r="C35" s="2">
         <v>5.4860549380648802</v>
       </c>
-      <c r="E35">
-        <v>20.475427875247998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2">
         <v>-4.75</v>
@@ -1525,13 +1415,10 @@
       <c r="C36" s="2">
         <v>5.01790688046861</v>
       </c>
-      <c r="E36">
-        <v>11.970869652479999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2">
         <v>-3.82</v>
@@ -1539,13 +1426,10 @@
       <c r="C37" s="2">
         <v>2.4220402530067702</v>
       </c>
-      <c r="E37">
-        <v>150.29249117605599</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2">
         <v>4.3899999999999997</v>
@@ -1553,13 +1437,10 @@
       <c r="C38" s="2">
         <v>6.7202857930893698</v>
       </c>
-      <c r="E38">
-        <v>17.997377619099002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2">
         <v>-25.77</v>
@@ -1567,13 +1448,10 @@
       <c r="C39" s="2">
         <v>8.7269752954725206</v>
       </c>
-      <c r="E39">
-        <v>3.6291586355000002E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2">
         <v>-2.2799999999999998</v>
@@ -1581,13 +1459,10 @@
       <c r="C40" s="2">
         <v>6.8346227295228603</v>
       </c>
-      <c r="E40">
-        <v>5.5402315143749998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2">
         <v>-6.29</v>
@@ -1595,13 +1470,10 @@
       <c r="C41" s="2">
         <v>1.9733644287738601</v>
       </c>
-      <c r="E41">
-        <v>37.253418910691998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
         <v>-22.19</v>
@@ -1609,13 +1481,10 @@
       <c r="C42" s="2">
         <v>9.6439225625531808</v>
       </c>
-      <c r="E42">
-        <v>0.83923223418799997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
         <v>-9.3800000000000008</v>
@@ -1623,13 +1492,10 @@
       <c r="C43" s="2">
         <v>17.572175026982901</v>
       </c>
-      <c r="E43">
-        <v>0.90679322578800003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
         <v>5.39</v>
@@ -1637,13 +1503,10 @@
       <c r="C44" s="2">
         <v>12.534750789996901</v>
       </c>
-      <c r="E44">
-        <v>1.7447552853920001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2">
         <v>-13.26</v>
@@ -1651,13 +1514,10 @@
       <c r="C45" s="2">
         <v>32.915097427354098</v>
       </c>
-      <c r="E45">
-        <v>1.2075100195999999E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2">
         <v>-30.97</v>
@@ -1665,13 +1525,10 @@
       <c r="C46" s="2">
         <v>19.3271964341426</v>
       </c>
-      <c r="E46">
-        <v>0.131474549356</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
         <v>-25.64</v>
@@ -1679,13 +1536,10 @@
       <c r="C47" s="2">
         <v>7.0703827681642597</v>
       </c>
-      <c r="E47">
-        <v>1.277117496254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2">
         <v>2.88</v>
@@ -1693,13 +1547,10 @@
       <c r="C48" s="2">
         <v>2.3611155237914301</v>
       </c>
-      <c r="E48">
-        <v>5.2006940487640003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2">
         <v>-36.81</v>
@@ -1707,13 +1558,10 @@
       <c r="C49" s="2">
         <v>15.9569946441579</v>
       </c>
-      <c r="E49">
-        <v>0.65688125394399999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2">
         <v>-3.86</v>
@@ -1721,13 +1569,10 @@
       <c r="C50" s="2">
         <v>5.4283791222352198</v>
       </c>
-      <c r="E50">
-        <v>0.35065720846999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2">
         <v>-44.17</v>
@@ -1735,13 +1580,10 @@
       <c r="C51" s="2">
         <v>9.69159448285804</v>
       </c>
-      <c r="E51">
-        <v>1.1908601518E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2">
         <v>-21.88</v>
@@ -1749,13 +1591,10 @@
       <c r="C52" s="2">
         <v>6.9317632245179297</v>
       </c>
-      <c r="E52">
-        <v>0.73618742368800005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2">
         <v>-23.98</v>
@@ -1763,13 +1602,10 @@
       <c r="C53" s="2">
         <v>22.691792765407602</v>
       </c>
-      <c r="E53">
-        <v>3.7893114922229998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2">
         <v>-10.72</v>
@@ -1777,13 +1613,10 @@
       <c r="C54" s="2">
         <v>17.879470104470698</v>
       </c>
-      <c r="E54">
-        <v>15.975448102204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2">
         <v>-5.78</v>
@@ -1791,13 +1624,10 @@
       <c r="C55" s="2">
         <v>13.6747902060795</v>
       </c>
-      <c r="E55">
-        <v>0.32388746674800001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2">
         <v>11</v>
@@ -1805,13 +1635,10 @@
       <c r="C56" s="2">
         <v>11.0402981634016</v>
       </c>
-      <c r="E56">
-        <v>0.43205852466299999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2">
         <v>-3.62</v>
@@ -1819,13 +1646,10 @@
       <c r="C57" s="2">
         <v>14.382169442828101</v>
       </c>
-      <c r="E57">
-        <v>1.952713357253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2">
         <v>6.04</v>
@@ -1833,13 +1657,10 @@
       <c r="C58" s="2">
         <v>14.016912544695</v>
       </c>
-      <c r="E58">
-        <v>0.71271229571200001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2">
         <v>-46.72</v>
@@ -1847,13 +1668,10 @@
       <c r="C59" s="2">
         <v>23.391176503330399</v>
       </c>
-      <c r="E59">
-        <v>0.276186490846</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2">
         <v>0.85</v>
@@ -1861,13 +1679,10 @@
       <c r="C60" s="2">
         <v>4.5872578603266101</v>
       </c>
-      <c r="E60">
-        <v>18.076773664288002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2">
         <v>35.75</v>
@@ -1875,13 +1690,10 @@
       <c r="C61" s="2">
         <v>33.145329915507702</v>
       </c>
-      <c r="E61">
-        <v>0.20655110183399999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2">
         <v>17.66</v>
@@ -1889,13 +1701,10 @@
       <c r="C62" s="2">
         <v>27.839973483020099</v>
       </c>
-      <c r="E62">
-        <v>3.4789380714E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2">
         <v>-6.72</v>
@@ -1903,13 +1712,10 @@
       <c r="C63" s="2">
         <v>22.243645051393901</v>
       </c>
-      <c r="E63">
-        <v>0.235449731893</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2">
         <v>3.05</v>
@@ -1917,13 +1723,10 @@
       <c r="C64" s="2">
         <v>12.431962951707201</v>
       </c>
-      <c r="E64">
-        <v>5.2825886486310001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2">
         <v>-20.59</v>
@@ -1931,13 +1734,10 @@
       <c r="C65" s="2">
         <v>14.253981648208599</v>
       </c>
-      <c r="E65">
-        <v>8.7839572081020005</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
         <v>-37.549999999999997</v>
@@ -1945,13 +1745,10 @@
       <c r="C66" s="2">
         <v>16.7739238418288</v>
       </c>
-      <c r="E66">
-        <v>1.355212268004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2">
         <v>26.71</v>
@@ -1959,13 +1756,10 @@
       <c r="C67" s="2">
         <v>35.414680038109204</v>
       </c>
-      <c r="E67">
-        <v>3.5744478688E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2">
         <v>10.23</v>
@@ -1973,13 +1767,10 @@
       <c r="C68" s="2">
         <v>50.2019282311472</v>
       </c>
-      <c r="E68">
-        <v>0.12886807498</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2">
         <v>8.82</v>
@@ -1987,13 +1778,10 @@
       <c r="C69" s="2">
         <v>7.1796595652804696</v>
       </c>
-      <c r="E69">
-        <v>4.2471877235870004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2">
         <v>-8.33</v>
@@ -2001,13 +1789,10 @@
       <c r="C70" s="2">
         <v>6.7466437628574596</v>
       </c>
-      <c r="E70">
-        <v>0.16816850648699999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2">
         <v>-12.61</v>
@@ -2015,13 +1800,10 @@
       <c r="C71" s="2">
         <v>8.3218098565357508</v>
       </c>
-      <c r="E71">
-        <v>1.1253136694779999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2">
         <v>-36.17</v>
@@ -2029,13 +1811,10 @@
       <c r="C72" s="2">
         <v>8.54152825765361</v>
       </c>
-      <c r="E72">
-        <v>5.7426317835339997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
         <v>-1.21</v>
@@ -2043,13 +1822,10 @@
       <c r="C73" s="2">
         <v>3.1510533344245499</v>
       </c>
-      <c r="E73">
-        <v>3.8025761545210002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2">
         <v>-10.43</v>
@@ -2057,13 +1833,10 @@
       <c r="C74" s="2">
         <v>13.7277223176017</v>
       </c>
-      <c r="E74">
-        <v>2.0694212115780002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2">
         <v>-1.28</v>
@@ -2071,13 +1844,10 @@
       <c r="C75" s="2">
         <v>5.1893264571712603</v>
       </c>
-      <c r="E75">
-        <v>34.254181279154999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
         <v>-8.4600000000000009</v>
@@ -2085,13 +1855,10 @@
       <c r="C76" s="2">
         <v>23.172180089373299</v>
       </c>
-      <c r="E76">
-        <v>1.2075100195999999E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2">
         <v>-16.079999999999998</v>
@@ -2099,13 +1866,10 @@
       <c r="C77" s="2">
         <v>18.047301747067699</v>
       </c>
-      <c r="E77">
-        <v>1.1864719773E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2">
         <v>-2.92</v>
@@ -2113,13 +1877,10 @@
       <c r="C78" s="2">
         <v>30.869444054941599</v>
       </c>
-      <c r="E78">
-        <v>1.2003046692000001E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2">
         <v>-7.19</v>
@@ -2127,13 +1888,10 @@
       <c r="C79" s="2">
         <v>10.658769653143001</v>
       </c>
-      <c r="E79">
-        <v>1.676605194025</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2">
         <v>-22.42</v>
@@ -2141,13 +1899,10 @@
       <c r="C80" s="2">
         <v>6.8291100694007802</v>
       </c>
-      <c r="E80">
-        <v>3.9949196367400002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2">
         <v>0.38</v>
@@ -2155,13 +1910,10 @@
       <c r="C81" s="2">
         <v>13.158613606270601</v>
       </c>
-      <c r="E81">
-        <v>0.51929608823499995</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="2">
         <v>-8.33</v>
@@ -2169,13 +1921,10 @@
       <c r="C82" s="2">
         <v>26.894826626627498</v>
       </c>
-      <c r="E82">
-        <v>3.3213564033640002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2">
         <v>-11.24</v>
@@ -2183,13 +1932,10 @@
       <c r="C83" s="2">
         <v>5.0414710471922204</v>
       </c>
-      <c r="E83">
-        <v>0.44378662190200002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2">
         <v>-89.48</v>
@@ -2197,13 +1943,10 @@
       <c r="C84" s="2">
         <v>56.457683510064101</v>
       </c>
-      <c r="E84">
-        <v>7.4112475610000001E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2">
         <v>34.18</v>
@@ -2211,13 +1954,10 @@
       <c r="C85" s="2">
         <v>12.192175032317399</v>
       </c>
-      <c r="E85">
-        <v>1.790674215356</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2">
         <v>-27.84</v>
@@ -2225,13 +1965,10 @@
       <c r="C86" s="2">
         <v>8.9952391254653605</v>
       </c>
-      <c r="E86">
-        <v>1.4441454108389999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2">
         <v>6</v>
@@ -2239,13 +1976,10 @@
       <c r="C87" s="2">
         <v>8.9735470854369908</v>
       </c>
-      <c r="E87">
-        <v>1.6245104364459999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2">
         <v>-17.41</v>
@@ -2253,13 +1987,10 @@
       <c r="C88" s="2">
         <v>7.17023224978574</v>
       </c>
-      <c r="E88">
-        <v>50.577778179359001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
         <v>-5.8</v>
@@ -2267,13 +1998,10 @@
       <c r="C89" s="2">
         <v>1.8955394438714901</v>
       </c>
-      <c r="E89">
-        <v>30.198377036617</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2">
         <v>-10.94</v>
@@ -2281,13 +2009,10 @@
       <c r="C90" s="2">
         <v>13.735128856018999</v>
       </c>
-      <c r="E90">
-        <v>26.834904804320001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2">
         <v>-16.989999999999998</v>
@@ -2295,13 +2020,10 @@
       <c r="C91" s="2">
         <v>17.6462529712073</v>
       </c>
-      <c r="E91">
-        <v>6.9843868674609997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2">
         <v>-11.58</v>
@@ -2309,13 +2031,10 @@
       <c r="C92" s="2">
         <v>8.9559410117035796</v>
       </c>
-      <c r="E92">
-        <v>1.065928959756</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2">
         <v>-23.27</v>
@@ -2323,13 +2042,10 @@
       <c r="C93" s="2">
         <v>30.9279848377499</v>
       </c>
-      <c r="E93">
-        <v>1.4431659821E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2">
         <v>-26</v>
@@ -2337,13 +2053,10 @@
       <c r="C94" s="2">
         <v>18.514656197335999</v>
       </c>
-      <c r="E94">
-        <v>0.33763584099100002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2">
         <v>-34.49</v>
@@ -2351,13 +2064,10 @@
       <c r="C95" s="2">
         <v>9.44584833198717</v>
       </c>
-      <c r="E95">
-        <v>4.7900282761659998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2">
         <v>-12.33</v>
@@ -2365,13 +2075,10 @@
       <c r="C96" s="2">
         <v>10.8391616493371</v>
       </c>
-      <c r="E96">
-        <v>0.176032293034</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2">
         <v>2.14</v>
@@ -2379,13 +2086,10 @@
       <c r="C97" s="2">
         <v>7.0307175148359802</v>
       </c>
-      <c r="E97">
-        <v>0.98649235513800004</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2">
         <v>-11.12</v>
@@ -2393,13 +2097,10 @@
       <c r="C98" s="2">
         <v>9.3418375400217801</v>
       </c>
-      <c r="E98">
-        <v>5.9081743263710003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2">
         <v>-29.08</v>
@@ -2407,13 +2108,10 @@
       <c r="C99" s="2">
         <v>21.3848375306058</v>
       </c>
-      <c r="E99">
-        <v>1.4353604411150001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2">
         <v>3.72</v>
@@ -2421,13 +2119,10 @@
       <c r="C100" s="2">
         <v>9.0424149033698509</v>
       </c>
-      <c r="E100">
-        <v>45.311446290740001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2">
         <v>-5.3</v>
@@ -2435,13 +2130,10 @@
       <c r="C101" s="2">
         <v>5.9761163088274403</v>
       </c>
-      <c r="E101">
-        <v>9.3052477605499995</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2">
         <v>-106.9</v>
@@ -2449,13 +2141,10 @@
       <c r="C102" s="2">
         <v>41.952053802166098</v>
       </c>
-      <c r="E102">
-        <v>1.2344010197E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2">
         <v>-7.68</v>
@@ -2463,13 +2152,10 @@
       <c r="C103" s="2">
         <v>15.2646417993122</v>
       </c>
-      <c r="E103">
-        <v>0.29082194821099999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2">
         <v>-3.23</v>
@@ -2477,13 +2163,10 @@
       <c r="C104" s="2">
         <v>17.059281092728899</v>
       </c>
-      <c r="E104">
-        <v>3.2400174577910001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2">
         <v>-22.68</v>
@@ -2491,13 +2174,10 @@
       <c r="C105" s="2">
         <v>12.8360165218287</v>
       </c>
-      <c r="E105">
-        <v>3.7214447857809998</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2">
         <v>-5.55</v>
@@ -2505,13 +2185,10 @@
       <c r="C106" s="2">
         <v>11.1459036568054</v>
       </c>
-      <c r="E106">
-        <v>1.013155856846</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2">
         <v>-31.66</v>
@@ -2519,13 +2196,10 @@
       <c r="C107" s="2">
         <v>18.2012544799402</v>
       </c>
-      <c r="E107">
-        <v>0.16388145884899999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2">
         <v>12.54</v>
@@ -2533,13 +2207,10 @@
       <c r="C108" s="2">
         <v>16.0202862464775</v>
       </c>
-      <c r="E108">
-        <v>0.50471492418499997</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2">
         <v>24.36</v>
@@ -2547,13 +2218,10 @@
       <c r="C109" s="2">
         <v>15.2490703462318</v>
       </c>
-      <c r="E109">
-        <v>1.521595344484</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2">
         <v>4.57</v>
@@ -2561,13 +2229,10 @@
       <c r="C110" s="2">
         <v>8.9583871733280205</v>
       </c>
-      <c r="E110">
-        <v>25.914663694819001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2">
         <v>-3.84</v>
@@ -2575,13 +2240,10 @@
       <c r="C111" s="2">
         <v>59.492650715186002</v>
       </c>
-      <c r="E111">
-        <v>8.4033726869999995E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2">
         <v>-12.81</v>
@@ -2589,13 +2251,10 @@
       <c r="C112" s="2">
         <v>19.7815252733884</v>
       </c>
-      <c r="E112">
-        <v>1.017683445116</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2">
         <v>-24.35</v>
@@ -2603,13 +2262,10 @@
       <c r="C113" s="2">
         <v>18.520411132460399</v>
       </c>
-      <c r="E113">
-        <v>3.9838214456999997E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2">
         <v>-7.16</v>
@@ -2617,13 +2273,10 @@
       <c r="C114" s="2">
         <v>4.71064154957363</v>
       </c>
-      <c r="E114">
-        <v>9.4581328098089994</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2">
         <v>23.88</v>
@@ -2631,13 +2284,10 @@
       <c r="C115" s="2">
         <v>5.6178073528455696</v>
       </c>
-      <c r="E115">
-        <v>1.9347651677840001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2">
         <v>-9.11</v>
@@ -2645,13 +2295,10 @@
       <c r="C116" s="2">
         <v>6.7131247922747903</v>
       </c>
-      <c r="E116">
-        <v>5.3220943844580004</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2">
         <v>-2.06</v>
@@ -2659,13 +2306,10 @@
       <c r="C117" s="2">
         <v>17.867731597382001</v>
       </c>
-      <c r="E117">
-        <v>20.086317833467</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2">
         <v>7.79</v>
@@ -2673,13 +2317,10 @@
       <c r="C118" s="2">
         <v>25.572557310240398</v>
       </c>
-      <c r="E118">
-        <v>1.0007668533000001E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2">
         <v>-88.48</v>
@@ -2687,13 +2328,10 @@
       <c r="C119" s="2">
         <v>32.205382703168198</v>
       </c>
-      <c r="E119">
-        <v>2.454639586E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2">
         <v>-46.3</v>
@@ -2701,13 +2339,10 @@
       <c r="C120" s="2">
         <v>14.0889286604222</v>
       </c>
-      <c r="E120">
-        <v>1.1950445411E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2">
         <v>-6.82</v>
@@ -2715,13 +2350,10 @@
       <c r="C121" s="2">
         <v>11.4381838278006</v>
       </c>
-      <c r="E121">
-        <v>16.569491574253</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2">
         <v>-37.53</v>
@@ -2729,13 +2361,10 @@
       <c r="C122" s="2">
         <v>26.131766312370999</v>
       </c>
-      <c r="E122">
-        <v>3.4752316510999998E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2">
         <v>-69</v>
@@ -2743,13 +2372,10 @@
       <c r="C123" s="2">
         <v>28.376305848972802</v>
       </c>
-      <c r="E123">
-        <v>1.2040110896E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2">
         <v>-9.67</v>
@@ -2757,13 +2383,10 @@
       <c r="C124" s="2">
         <v>3.3558456159431902</v>
       </c>
-      <c r="E124">
-        <v>31.247649409811</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2">
         <v>-19.28</v>
@@ -2771,13 +2394,10 @@
       <c r="C125" s="2">
         <v>10.1995199874761</v>
       </c>
-      <c r="E125">
-        <v>0.553711529295</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2">
         <v>-8.56</v>
@@ -2785,13 +2405,10 @@
       <c r="C126" s="2">
         <v>4.0011413178650299</v>
       </c>
-      <c r="E126">
-        <v>24.938326412837998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2">
         <v>2.5299999999999998</v>
@@ -2799,13 +2416,10 @@
       <c r="C127" s="2">
         <v>12.597165070759401</v>
       </c>
-      <c r="E127">
-        <v>0.22671112638800001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2">
         <v>-5.2</v>
@@ -2813,13 +2427,10 @@
       <c r="C128" s="2">
         <v>4.1094387108240102</v>
       </c>
-      <c r="E128">
-        <v>10.770014862036</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2">
         <v>-10.59</v>
@@ -2827,13 +2438,10 @@
       <c r="C129" s="2">
         <v>7.6817427853368399</v>
       </c>
-      <c r="E129">
-        <v>12.57652650923</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2">
         <v>6.71</v>
@@ -2841,13 +2449,10 @@
       <c r="C130" s="2">
         <v>7.9278550847336797</v>
       </c>
-      <c r="E130">
-        <v>10.712919092306</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2">
         <v>-5.34</v>
@@ -2855,13 +2460,10 @@
       <c r="C131" s="2">
         <v>7.9709139199023804</v>
       </c>
-      <c r="E131">
-        <v>13.076243422465</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2">
         <v>-24.79</v>
@@ -2869,13 +2471,10 @@
       <c r="C132" s="2">
         <v>22.3376534172167</v>
       </c>
-      <c r="E132">
-        <v>2.3497914988969999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2">
         <v>-30.44</v>
@@ -2883,13 +2482,10 @@
       <c r="C133" s="2">
         <v>10.2143381278378</v>
       </c>
-      <c r="E133">
-        <v>0.52912617958599995</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2">
         <v>-5.67</v>
@@ -2897,13 +2493,10 @@
       <c r="C134" s="2">
         <v>20.587687452859601</v>
       </c>
-      <c r="E134">
-        <v>0.25309266349199999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2">
         <v>-19.350000000000001</v>
@@ -2911,13 +2504,10 @@
       <c r="C135" s="2">
         <v>2.45412039302464</v>
       </c>
-      <c r="E135">
-        <v>4.334748045854</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2">
         <v>0.51</v>
@@ -2925,13 +2515,10 @@
       <c r="C136" s="2">
         <v>4.8292137497005498</v>
       </c>
-      <c r="E136">
-        <v>2.0827323492510001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2">
         <v>-2.6</v>
@@ -2939,13 +2526,10 @@
       <c r="C137" s="2">
         <v>12.2453888789478</v>
       </c>
-      <c r="E137">
-        <v>18.938992003740999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2">
         <v>-5.0199999999999996</v>
@@ -2953,13 +2537,10 @@
       <c r="C138" s="2">
         <v>7.9000078590307696</v>
       </c>
-      <c r="E138">
-        <v>14.504365462915001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2">
         <v>27.48</v>
@@ -2967,13 +2548,10 @@
       <c r="C139" s="2">
         <v>83.366742597261606</v>
       </c>
-      <c r="E139">
-        <v>1.1668937779999999E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2">
         <v>-20.52</v>
@@ -2981,13 +2559,10 @@
       <c r="C140" s="2">
         <v>6.7334865764024903</v>
       </c>
-      <c r="E140">
-        <v>1.9910620872060001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2">
         <v>-21.39</v>
@@ -2995,13 +2570,10 @@
       <c r="C141" s="2">
         <v>9.8690101517777808</v>
       </c>
-      <c r="E141">
-        <v>0.38788844217599999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2">
         <v>-11.78</v>
@@ -3009,13 +2581,10 @@
       <c r="C142" s="2">
         <v>8.1329479798320197</v>
       </c>
-      <c r="E142">
-        <v>5.1120817255770001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2">
         <v>-13.76</v>
@@ -3023,13 +2592,10 @@
       <c r="C143" s="2">
         <v>7.2465119842430497</v>
       </c>
-      <c r="E143">
-        <v>4.8864737810700003</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2">
         <v>-15.99</v>
@@ -3037,13 +2603,10 @@
       <c r="C144" s="2">
         <v>9.1795414897557599</v>
       </c>
-      <c r="E144">
-        <v>14.046881635379</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2">
         <v>-37.14</v>
@@ -3051,13 +2614,10 @@
       <c r="C145" s="2">
         <v>15.955115779421201</v>
       </c>
-      <c r="E145">
-        <v>0.104879717082</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2">
         <v>-4.79</v>
@@ -3065,13 +2625,10 @@
       <c r="C146" s="2">
         <v>8.0993579634833299</v>
       </c>
-      <c r="E146">
-        <v>1.245851042807</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2">
         <v>-5.55</v>
@@ -3079,13 +2636,10 @@
       <c r="C147" s="2">
         <v>3.9629526085030999</v>
       </c>
-      <c r="E147">
-        <v>7.4698661490799996</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2">
         <v>13.99</v>
@@ -3093,13 +2647,10 @@
       <c r="C148" s="2">
         <v>6.9827684515204904</v>
       </c>
-      <c r="E148">
-        <v>6.3518602536859996</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2">
         <v>-18.55</v>
@@ -3107,13 +2658,10 @@
       <c r="C149" s="2">
         <v>5.5843436684626004</v>
       </c>
-      <c r="E149">
-        <v>20.592816310366</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2">
         <v>-9.25</v>
@@ -3121,13 +2669,10 @@
       <c r="C150" s="2">
         <v>2.64624837950393</v>
       </c>
-      <c r="E150">
-        <v>4.6333365936000002</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2">
         <v>-24.47</v>
@@ -3135,13 +2680,10 @@
       <c r="C151" s="2">
         <v>15.3329755681468</v>
       </c>
-      <c r="E151">
-        <v>4.9127116804890001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152" s="2">
         <v>5.58</v>
@@ -3149,13 +2691,10 @@
       <c r="C152" s="2">
         <v>8.2250229087445099</v>
       </c>
-      <c r="E152">
-        <v>1.4162095731890001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153" s="2">
         <v>-7.47</v>
@@ -3163,13 +2702,10 @@
       <c r="C153" s="2">
         <v>7.6352487006917</v>
       </c>
-      <c r="E153">
-        <v>0.15248991594399999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B154" s="2">
         <v>-24.74</v>
@@ -3177,13 +2713,10 @@
       <c r="C154" s="2">
         <v>16.282798708161501</v>
       </c>
-      <c r="E154">
-        <v>0.16758916370800001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B155" s="2">
         <v>-13.51</v>
@@ -3191,13 +2724,10 @@
       <c r="C155" s="2">
         <v>13.352488103121701</v>
       </c>
-      <c r="E155">
-        <v>3.801836685983</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156" s="2">
         <v>-4.5199999999999996</v>
@@ -3205,13 +2735,10 @@
       <c r="C156" s="2">
         <v>8.0593152316540095</v>
       </c>
-      <c r="E156">
-        <v>270.322920429428</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B157" s="2">
         <v>-29.93</v>
@@ -3219,13 +2746,10 @@
       <c r="C157" s="2">
         <v>10.3278723626398</v>
       </c>
-      <c r="E157">
-        <v>0.37029314690999998</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158" s="2">
         <v>-30.23</v>
@@ -3233,13 +2757,10 @@
       <c r="C158" s="2">
         <v>12.944836965295501</v>
       </c>
-      <c r="E158">
-        <v>2.3041213721000001E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159" s="2">
         <v>-20.329999999999998</v>
@@ -3247,13 +2768,10 @@
       <c r="C159" s="2">
         <v>29.540867606185</v>
       </c>
-      <c r="E159">
-        <v>8.4033726869999995E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B160" s="2">
         <v>-43.44</v>
@@ -3261,13 +2779,10 @@
       <c r="C160" s="2">
         <v>18.191082395173499</v>
       </c>
-      <c r="E160">
-        <v>3.5996332486000003E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B161" s="2">
         <v>-56.24</v>
@@ -3275,13 +2790,10 @@
       <c r="C161" s="2">
         <v>18.1005929619641</v>
       </c>
-      <c r="E161">
-        <v>3.7046604321000001E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B162" s="2">
         <v>-14.8</v>
@@ -3289,13 +2801,10 @@
       <c r="C162" s="2">
         <v>15.1106810475733</v>
       </c>
-      <c r="E162">
-        <v>30.850979357279002</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B163" s="2">
         <v>-16.18</v>
@@ -3303,13 +2812,10 @@
       <c r="C163" s="2">
         <v>13.801609325982501</v>
       </c>
-      <c r="E163">
-        <v>3.073762593074</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B164" s="2">
         <v>-18.12</v>
@@ -3317,13 +2823,10 @@
       <c r="C164" s="2">
         <v>12.3647184743502</v>
       </c>
-      <c r="E164">
-        <v>1.4472413031460001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B165" s="2">
         <v>23.75</v>
@@ -3331,13 +2834,10 @@
       <c r="C165" s="2">
         <v>8.1257273859039891</v>
       </c>
-      <c r="E165">
-        <v>1.1967992798380001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B166" s="2">
         <v>-44.68</v>
@@ -3345,13 +2845,10 @@
       <c r="C166" s="2">
         <v>31.882603358173</v>
       </c>
-      <c r="E166">
-        <v>1.23470608E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B167" s="2">
         <v>-26.59</v>
@@ -3359,13 +2856,10 @@
       <c r="C167" s="2">
         <v>16.952963726722501</v>
       </c>
-      <c r="E167">
-        <v>0.798713957664</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B168" s="2">
         <v>-16.32</v>
@@ -3373,13 +2867,10 @@
       <c r="C168" s="2">
         <v>12.998301895559599</v>
       </c>
-      <c r="E168">
-        <v>0.32516039551999998</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B169" s="2">
         <v>24.77</v>
@@ -3387,13 +2878,10 @@
       <c r="C169" s="2">
         <v>16.8468139899887</v>
       </c>
-      <c r="E169">
-        <v>0.42699458611500002</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B170" s="2">
         <v>-0.38</v>
@@ -3401,13 +2889,10 @@
       <c r="C170" s="2">
         <v>8.4267504320697402</v>
       </c>
-      <c r="E170">
-        <v>10.247627969949001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B171" s="2">
         <v>-18.989999999999998</v>
@@ -3415,13 +2900,10 @@
       <c r="C171" s="2">
         <v>5.2357001071431499</v>
       </c>
-      <c r="E171">
-        <v>19.559051965683999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B172" s="2">
         <v>-86.14</v>
@@ -3429,13 +2911,10 @@
       <c r="C172" s="2">
         <v>86.059923506609096</v>
       </c>
-      <c r="E172">
-        <v>6.4876572475999997E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B173" s="2">
         <v>-18.29</v>
@@ -3443,13 +2922,10 @@
       <c r="C173" s="2">
         <v>5.4125409528240498</v>
       </c>
-      <c r="E173">
-        <v>1.5518377835099999</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B174" s="2">
         <v>-1.97</v>
@@ -3457,13 +2933,10 @@
       <c r="C174" s="2">
         <v>8.2791550990808904</v>
       </c>
-      <c r="E174">
-        <v>10.224520705123</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B175" s="2">
         <v>0.8</v>
@@ -3471,13 +2944,10 @@
       <c r="C175" s="2">
         <v>4.5316719203903997</v>
       </c>
-      <c r="E175">
-        <v>8.0016201819620001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B176" s="2">
         <v>0.7</v>
@@ -3485,13 +2955,10 @@
       <c r="C176" s="2">
         <v>7.8803644908807602</v>
       </c>
-      <c r="E176">
-        <v>1.0770880763849999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B177" s="2">
         <v>-8.42</v>
@@ -3499,13 +2966,10 @@
       <c r="C177" s="2">
         <v>10.290133014007001</v>
       </c>
-      <c r="E177">
-        <v>29.685938789461002</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B178" s="2">
         <v>-25.14</v>
@@ -3513,13 +2977,10 @@
       <c r="C178" s="2">
         <v>24.951214589355001</v>
       </c>
-      <c r="E178">
-        <v>2.3647703651900001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B179" s="2">
         <v>-1.77</v>
@@ -3527,13 +2988,10 @@
       <c r="C179" s="2">
         <v>9.9241760338668694</v>
       </c>
-      <c r="E179">
-        <v>7.0675894718550003</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B180" s="2">
         <v>-18.45</v>
@@ -3541,13 +2999,10 @@
       <c r="C180" s="2">
         <v>18.201806684282001</v>
       </c>
-      <c r="E180">
-        <v>0.63390017537999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B181" s="2">
         <v>-11.49</v>
@@ -3555,13 +3010,10 @@
       <c r="C181" s="2">
         <v>16.366350945794601</v>
       </c>
-      <c r="E181">
-        <v>2.9831406144139998</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B182" s="2">
         <v>-5.43</v>
@@ -3569,13 +3021,10 @@
       <c r="C182" s="2">
         <v>8.3501842783903104</v>
       </c>
-      <c r="E182">
-        <v>2.2510251647059998</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B183" s="2">
         <v>-13.92</v>
@@ -3583,13 +3032,10 @@
       <c r="C183" s="2">
         <v>2.9846603958365399</v>
       </c>
-      <c r="E183">
-        <v>15.084341939483</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B184" s="2">
         <v>-13.9</v>
@@ -3597,13 +3043,10 @@
       <c r="C184" s="2">
         <v>12.764080763816599</v>
       </c>
-      <c r="E184">
-        <v>8.2022651566209994</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B185" s="2">
         <v>1.88</v>
@@ -3611,13 +3054,10 @@
       <c r="C185" s="2">
         <v>16.118877481072001</v>
       </c>
-      <c r="E185">
-        <v>0.24405190012399999</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B186" s="2">
         <v>-3.96</v>
@@ -3625,13 +3065,10 @@
       <c r="C186" s="2">
         <v>6.0500746414091404</v>
       </c>
-      <c r="E186">
-        <v>0.94007791838800003</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B187" s="2">
         <v>-1.45</v>
@@ -3639,13 +3076,10 @@
       <c r="C187" s="2">
         <v>13.747420537307001</v>
       </c>
-      <c r="E187">
-        <v>8.5049948047999993E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B188" s="2">
         <v>-9.33</v>
@@ -3653,13 +3087,10 @@
       <c r="C188" s="2">
         <v>7.1476148795635996</v>
       </c>
-      <c r="E188">
-        <v>2.5458056341219999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B189" s="2">
         <v>-14.82</v>
@@ -3667,13 +3098,10 @@
       <c r="C189" s="2">
         <v>8.6758485992019896</v>
       </c>
-      <c r="E189">
-        <v>12.482062438638</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B190" s="2">
         <v>-4.7699999999999996</v>
@@ -3681,13 +3109,10 @@
       <c r="C190" s="2">
         <v>8.1856606746492595</v>
       </c>
-      <c r="E190">
-        <v>8.7971380097049998</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B191" s="2">
         <v>3.35</v>
@@ -3695,13 +3120,10 @@
       <c r="C191" s="2">
         <v>4.5404706686710501</v>
       </c>
-      <c r="E191">
-        <v>3.9007055426520001</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B192" s="2">
         <v>-19.239999999999998</v>
@@ -3709,13 +3131,10 @@
       <c r="C192" s="2">
         <v>10.7196778992083</v>
       </c>
-      <c r="E192">
-        <v>9.5501540887619996</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B193" s="2">
         <v>-19.48</v>
@@ -3723,13 +3142,10 @@
       <c r="C193" s="2">
         <v>16.3441936635618</v>
       </c>
-      <c r="E193">
-        <v>1.106593022972</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B194" s="2">
         <v>-36.53</v>
@@ -3737,13 +3153,10 @@
       <c r="C194" s="2">
         <v>10.015218690433899</v>
       </c>
-      <c r="E194">
-        <v>3.9348604968330001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B195" s="2">
         <v>-15.5</v>
@@ -3751,13 +3164,10 @@
       <c r="C195" s="2">
         <v>6.3942359836052596</v>
       </c>
-      <c r="E195">
-        <v>151.17809358238</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B196" s="2">
         <v>-1.37</v>
@@ -3765,13 +3175,10 @@
       <c r="C196" s="2">
         <v>11.6240151594134</v>
       </c>
-      <c r="E196">
-        <v>2.8747238903599999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B197" s="2">
         <v>-4.88</v>
@@ -3779,13 +3186,10 @@
       <c r="C197" s="2">
         <v>7.7089084121305103</v>
       </c>
-      <c r="E197">
-        <v>7.1309057166830003</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B198" s="2">
         <v>-8.9499999999999993</v>
@@ -3793,13 +3197,10 @@
       <c r="C198" s="2">
         <v>20.468281050862</v>
       </c>
-      <c r="E198">
-        <v>0.16600998901799999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B199" s="2">
         <v>21.86</v>
@@ -3807,13 +3208,10 @@
       <c r="C199" s="2">
         <v>10.2674496214391</v>
       </c>
-      <c r="E199">
-        <v>14.594285284253999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B200" s="2">
         <v>-12.37</v>
@@ -3821,13 +3219,10 @@
       <c r="C200" s="2">
         <v>3.2891475360254301</v>
       </c>
-      <c r="E200">
-        <v>5.2043119893340002</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B201" s="2">
         <v>-9.76</v>
@@ -3835,13 +3230,10 @@
       <c r="C201" s="2">
         <v>13.993967285267299</v>
       </c>
-      <c r="E201">
-        <v>7.3141999383079996</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B202" s="2">
         <v>-1.67</v>
@@ -3849,22 +3241,16 @@
       <c r="C202" s="2">
         <v>6.1757960169873201</v>
       </c>
-      <c r="E202">
-        <v>12.062069578299999</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B203" s="2">
         <v>-1.83</v>
       </c>
       <c r="C203" s="2">
         <v>5.3499611081027902</v>
-      </c>
-      <c r="E203">
-        <v>6.2229016363280003</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau_Public_Workshop/Datasets/dataset1_global_no2.xlsx
+++ b/Tableau_Public_Workshop/Datasets/dataset1_global_no2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angela\Tableau_Public_Workshop\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD49B8B9-1A6A-428F-8976-4C4FC29CFB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6F8639-1573-49F2-BB8B-F90A6E1A3BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
